--- a/Program Manager Capstone/Program Communications Plan Solution.xlsx
+++ b/Program Manager Capstone/Program Communications Plan Solution.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80b4d01e8c5b5425/Documents/Skill Up/Program Manager/200836 Course 5 Program Management Capstone Course/Module 3/200836.031 Communications and Risk Planning Lab M3-L1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{33FC9598-A423-4D8C-9D04-008A15905BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39851EF-4EA7-445E-A12C-537F375DE757}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD4F4E6F-68FB-4635-8D8D-8D900FC444BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="Solution" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Solution!$A$1:$G$13</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -277,8 +279,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +293,20 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -341,26 +357,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,334 +722,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6154FE8F-312D-4104-8ABA-41A4A398DE17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="5" width="25.69921875" customWidth="1"/>
+    <col min="6" max="7" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" ht="27.6">
+      <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" ht="27.6">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" ht="27.6">
+      <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>